--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>别名</t>
   </si>
@@ -187,6 +187,18 @@
     <t>//*[@id="app"]//label[contains(text(),'有效日期')]/following-sibling::*[1]//input[1]</t>
   </si>
   <si>
+    <t>搜索时间</t>
+  </si>
+  <si>
+    <t>//i[@class='el-input__icon el-range__icon el-icon-time'or @class='el-input__icon el-range__icon el-icon-date']</t>
+  </si>
+  <si>
+    <t>最近三个月</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'最近三个月')]</t>
+  </si>
+  <si>
     <t>后一天</t>
   </si>
   <si>
@@ -197,6 +209,12 @@
   </si>
   <si>
     <t>//div[@id='scoreConfigTable']//div[@class='el-table__fixed']</t>
+  </si>
+  <si>
+    <t>记录列表</t>
+  </si>
+  <si>
+    <t>//div[@id='scoreConfigTable' or @id='scoreRecordWaterTable' or @id='scoreReportTable']</t>
   </si>
   <si>
     <t>重新同步</t>
@@ -210,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,6 +249,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,15 +356,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,105 +372,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,6 +408,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,73 +462,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,36 +558,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,24 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -547,30 +589,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +619,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -630,6 +637,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,21 +714,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -704,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +734,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1525,7 +1543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" ht="28" customHeight="1" spans="1:3">
+    <row r="28" ht="27" customHeight="1" spans="1:3">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
@@ -1536,14 +1554,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="28" customHeight="1" spans="1:3">
+    <row r="29" ht="27" customHeight="1" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1556,6 +1574,39 @@
       </c>
       <c r="C30" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="28" customHeight="1" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="28" customHeight="1" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="28" customHeight="1" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>别名</t>
   </si>
@@ -228,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,7 +250,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +334,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -272,120 +349,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -408,109 +408,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,73 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +617,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -627,16 +642,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,31 +692,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,133 +734,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>别名</t>
   </si>
@@ -172,7 +172,7 @@
     <t>请选择停车场</t>
   </si>
   <si>
-    <t>//span[contains(text(), "请选择停车场")]</t>
+    <t>//form[@class='form-inline']/span[1]//i</t>
   </si>
   <si>
     <t>选择停车场列表</t>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>//div[@id='scoreReportTable']//div[@class='el-table__fixed-right']//tr[2]//button[@title='重新同步']</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//input[@placeholder='开始日期']</t>
+  </si>
+  <si>
+    <t>有效日期-确定</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//span[contains(text(),'确定')]</t>
   </si>
 </sst>
 </file>
@@ -228,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,15 +262,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +291,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -295,31 +314,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,9 +336,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -357,35 +382,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -408,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,60 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -686,7 +644,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,8 +667,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,10 +734,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +746,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1231,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1607,6 +1622,28 @@
       </c>
       <c r="C33" s="4" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>别名</t>
   </si>
@@ -75,7 +75,7 @@
     <t>适用停车场</t>
   </si>
   <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'适用停车场')]/following-sibling::*[1]//button</t>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'适用车场')]/following-sibling::*[1]//button</t>
   </si>
   <si>
     <t>选择停车场</t>
@@ -93,146 +93,152 @@
     <t>抵扣规则-积分</t>
   </si>
   <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'抵扣规则')]/following-sibling::*[1]//input[@placeholder='请输入积分']</t>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[text()='抵扣规则']/following-sibling::*[1]//span[contains(text(),'积分')]/preceding-sibling::*[1]//input[@placeholder='多少']</t>
   </si>
   <si>
     <t>抵扣规则-元</t>
   </si>
   <si>
-    <t xml:space="preserve">//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'抵扣规则')]/following-sibling::*[1]//input[@placeholder='请输入金额']
+    <t>//*[@id="app"]//div[@class='modal-container']//label[text()='抵扣规则']/following-sibling::*[1]//span[contains(text(),'元')]/preceding-sibling::*[1]//input[@placeholder='多少']</t>
+  </si>
+  <si>
+    <t>单次最高抵扣扣分</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-container']//label[text()='单次最高抵扣']/following-sibling::*[1]//span[contains(text(),'积分')]/preceding-sibling::*[1]//input[@placeholder='多少']</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>//div[@class="el-table__fixed-right"]//tr[1]//button[@title='启用']</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>//div[@class="el-table__fixed-right"]//tr[1]//button[@title='禁用']</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>//div[@class='el-table__fixed-right']//tr[1]//i[@class='icon-edit']</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>//div[@class='el-table__fixed-right']//tr[1]//i[@class='icon-delete']</t>
+  </si>
+  <si>
+    <t>确认-提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//*[text()='确认']</t>
+  </si>
+  <si>
+    <t>确认-二级提示</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>//i[@class='ion-ios-search-strong']</t>
+  </si>
+  <si>
+    <t>操作成功-提示</t>
+  </si>
+  <si>
+    <t>//div[@class='toast-wrapper']</t>
+  </si>
+  <si>
+    <t>请选择停车场</t>
+  </si>
+  <si>
+    <t>//form[@class='form-inline']/span[1]//i</t>
+  </si>
+  <si>
+    <t>选择停车场列表</t>
+  </si>
+  <si>
+    <t>//ul[@id='tableTree']</t>
+  </si>
+  <si>
+    <t>搜索有效日期</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//label[contains(text(),'有效日期')]/following-sibling::*[1]//input[1]</t>
+  </si>
+  <si>
+    <t>搜索时间</t>
+  </si>
+  <si>
+    <t>//i[@class='el-input__icon el-range__icon el-icon-time'or @class='el-input__icon el-range__icon el-icon-date']</t>
+  </si>
+  <si>
+    <t>最近三个月</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'最近三个月')]</t>
+  </si>
+  <si>
+    <t>后一天</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'后一天')]</t>
+  </si>
+  <si>
+    <t>积分配置列表</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]//div[@class='el-table__fixed']</t>
+  </si>
+  <si>
+    <t>记录列表</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'table-cache')]</t>
+  </si>
+  <si>
+    <t>重新同步</t>
+  </si>
+  <si>
+    <t>//div[@class='el-table__fixed-right']//tr[2]//button[@title='重新同步']</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//input[@placeholder='开始日期']</t>
+  </si>
+  <si>
+    <t>有效日期-确定</t>
+  </si>
+  <si>
+    <t>//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//span[contains(text(),'确定')]</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//input[@placeholder='结束日期']
 </t>
   </si>
   <si>
-    <t>单次最高抵扣扣分</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'单次最高抵扣积分')]/following-sibling::*[1]//input</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-container']//label[contains(text(),'备注')]/following-sibling::*[1]//textarea</t>
-  </si>
-  <si>
-    <t>启用</t>
-  </si>
-  <si>
-    <t>//div[@class="el-table__fixed-right"]//span[@title='86']/../../..//button[@title='启用']</t>
-  </si>
-  <si>
-    <t>禁用</t>
-  </si>
-  <si>
-    <t>//div[@class="el-table__fixed-right"]//span[@title='86']/../../..//button[@title='禁用']</t>
-  </si>
-  <si>
-    <t>导出</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//a[contains(text(), "导出")]</t>
-  </si>
-  <si>
-    <t>编辑</t>
-  </si>
-  <si>
-    <t>//*[@id="scoreConfigTable"]//div[@class='el-table__fixed-right']//tr[1]//i[@class='icon-edit']</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>//*[@id="scoreConfigTable"]//div[@class='el-table__fixed-right']//tr[1]//i[@class='icon-delete']</t>
-  </si>
-  <si>
-    <t>确认-提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
-  </si>
-  <si>
-    <t>确认-二级提示</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//div[@class='modal-wrapper select-park-modal']//button[contains(text(),'确认')][1]</t>
-  </si>
-  <si>
-    <t>搜索按钮</t>
-  </si>
-  <si>
-    <t>//i[@class='ion-ios-search-strong']</t>
-  </si>
-  <si>
-    <t>操作成功-提示</t>
-  </si>
-  <si>
-    <t>//div[@class='toast-wrapper']</t>
-  </si>
-  <si>
-    <t>请选择停车场</t>
-  </si>
-  <si>
-    <t>//form[@class='form-inline']/span[1]//i</t>
-  </si>
-  <si>
-    <t>选择停车场列表</t>
-  </si>
-  <si>
-    <t>//ul[@id='tableTree']</t>
-  </si>
-  <si>
-    <t>搜索有效日期</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//label[contains(text(),'有效日期')]/following-sibling::*[1]//input[1]</t>
-  </si>
-  <si>
-    <t>搜索时间</t>
-  </si>
-  <si>
-    <t>//i[@class='el-input__icon el-range__icon el-icon-time'or @class='el-input__icon el-range__icon el-icon-date']</t>
-  </si>
-  <si>
-    <t>最近三个月</t>
-  </si>
-  <si>
-    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'最近三个月')]</t>
-  </si>
-  <si>
-    <t>后一天</t>
-  </si>
-  <si>
-    <t>//div[@class='el-picker-panel__sidebar']/button[contains(text(),'后一天')]</t>
-  </si>
-  <si>
-    <t>积分配置列表</t>
-  </si>
-  <si>
-    <t>//div[@id='scoreConfigTable']//div[@class='el-table__fixed']</t>
-  </si>
-  <si>
-    <t>记录列表</t>
-  </si>
-  <si>
-    <t>//div[@id='scoreConfigTable' or @id='scoreRecordWaterTable' or @id='scoreReportTable']</t>
-  </si>
-  <si>
-    <t>重新同步</t>
-  </si>
-  <si>
-    <t>//div[@id='scoreReportTable']//div[@class='el-table__fixed-right']//tr[2]//button[@title='重新同步']</t>
-  </si>
-  <si>
-    <t>开始日期</t>
-  </si>
-  <si>
-    <t>//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//input[@placeholder='开始日期']</t>
-  </si>
-  <si>
-    <t>有效日期-确定</t>
-  </si>
-  <si>
-    <t>//div[@class='el-picker-panel el-date-range-picker el-popper has-sidebar has-time' and not(contains(@style,'display'))]//span[contains(text(),'确定')]</t>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//form[@class='form-inline']//div[text()='状态']/following-sibling::*[1]//input</t>
   </si>
 </sst>
 </file>
@@ -240,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -262,9 +268,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,45 +360,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,14 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -350,17 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,37 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -420,19 +426,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,163 +534,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,6 +635,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -644,7 +704,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,62 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,137 +752,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +903,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1422,7 +1431,7 @@
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1470,7 +1479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:3">
+    <row r="20" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="32" customHeight="1" spans="1:3">
+    <row r="22" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="27" customHeight="1" spans="1:3">
+    <row r="24" ht="27" customHeight="1" spans="1:3">
       <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
@@ -1565,18 +1574,18 @@
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" ht="27" customHeight="1" spans="1:3">
+    <row r="29" ht="28" customHeight="1" spans="1:3">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1591,7 +1600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" ht="28" customHeight="1" spans="1:3">
+    <row r="31" ht="27" customHeight="1" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" ht="28" customHeight="1" spans="1:3">
+    <row r="32" ht="27" customHeight="1" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>64</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" ht="28" customHeight="1" spans="1:3">
+    <row r="33" ht="27" customHeight="1" spans="1:3">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -1624,26 +1633,37 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="6" t="s">
+    <row r="34" ht="27" customHeight="1" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="27" customHeight="1" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="7" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="36" ht="27" customHeight="1" spans="1:3">
+      <c r="A36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -39,7 +39,7 @@
     <t>积分抵扣对接</t>
   </si>
   <si>
-    <t>//ul[@role='menubar']//span[contains(text(),'积分抵扣对接')]</t>
+    <t>//ul[@role='menubar']//span[contains(text(),'车场积分对接')]</t>
   </si>
   <si>
     <t>积分抵扣配置</t>
@@ -141,7 +141,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//*[text()='确认']</t>
+    <t>//*[@id="app"]//*[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>确认-二级提示</t>
@@ -882,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,12 +894,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1257,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1645,24 +1639,24 @@
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>73</v>
       </c>
     </row>

--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>//nav[@class='menu-box']//a[contains(text(), "车场运营")]</t>
   </si>
   <si>
-    <t>积分抵扣对接</t>
-  </si>
-  <si>
-    <t>//ul[@role='menubar']//span[contains(text(),'积分抵扣对接')]</t>
+    <t>车场积分对接</t>
+  </si>
+  <si>
+    <t>//ul[@role='menubar']//span[contains(text(),'车场积分对接')]</t>
   </si>
   <si>
     <t>积分抵扣配置</t>
@@ -141,7 +141,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//*[text()='确认']</t>
+    <t>//*[@id="app"]//*[text()='确认' or text()='确 认']</t>
   </si>
   <si>
     <t>确认-二级提示</t>
@@ -246,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -268,6 +268,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -282,6 +289,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -290,51 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -342,74 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,31 +426,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,151 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,45 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -689,22 +650,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,6 +688,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,16 +752,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,119 +770,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,12 +894,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1257,8 +1251,8 @@
   <sheetPr/>
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1645,24 +1639,24 @@
       </c>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>73</v>
       </c>
     </row>

--- a/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
+++ b/res/page/车场运营/增值服务/积分抵扣对接/ScoreConfigPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>//nav[@class='menu-box']//a[contains(text(), "车场运营")]</t>
   </si>
   <si>
-    <t>积分抵扣对接</t>
+    <t>车场积分对接</t>
   </si>
   <si>
     <t>//ul[@role='menubar']//span[contains(text(),'车场积分对接')]</t>
@@ -246,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -268,9 +268,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,6 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -291,63 +383,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,17 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,35 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -426,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +631,51 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,32 +704,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,39 +732,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,133 +752,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
